--- a/biology/Botanique/Orbiliales/Orbiliales.xlsx
+++ b/biology/Botanique/Orbiliales/Orbiliales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orbiliomycetes sont une classe de champignons du sous-embranchement des Pezizomycotina (embranchement des Ascomycota).
-Un seul ordre, les Orbiliales, et une seule famille, les Orbiliaceae englobent tous les champignons de cette classe. Ils produisent de petites apothécies, minuscules coupelles de 1 à 3 mm, cireuses, de couleur claire et semi-translucides avec des asques et des ascospores minuscules. L'hymenium comporte des paraphyses souvent enflées en forme de massue à leur extrémité. La famille des Orbiliaceae, traditionnellement placées dans les Helotiales, a été exclue de cet ordre en fonction de preuves moléculaires. En 2003, l'ordre des Orbiliales et la nouvelle classe des Orbiliomycetes ont été proposés[1]. Plus de 200 espèces d'Orbiliaceae ont été décrites dans le monde.
+Un seul ordre, les Orbiliales, et une seule famille, les Orbiliaceae englobent tous les champignons de cette classe. Ils produisent de petites apothécies, minuscules coupelles de 1 à 3 mm, cireuses, de couleur claire et semi-translucides avec des asques et des ascospores minuscules. L'hymenium comporte des paraphyses souvent enflées en forme de massue à leur extrémité. La famille des Orbiliaceae, traditionnellement placées dans les Helotiales, a été exclue de cet ordre en fonction de preuves moléculaires. En 2003, l'ordre des Orbiliales et la nouvelle classe des Orbiliomycetes ont été proposés. Plus de 200 espèces d'Orbiliaceae ont été décrites dans le monde.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Usage économique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs souches d'Arthrobotrys ont été utilisées en lutte biologique contre les nématodes.
 </t>
@@ -545,7 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Phylogramme des Orbiliaceae
+          <t>Phylogramme des Orbiliaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pezizomycotina
 Orbiliomycetes
 Orbiliales
@@ -584,7 +604,9 @@
           <t>Classification classique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon IRMNG (site visité le 25 avril 2022), le taxon ne compte qu'un seul ordre, Orbiliales, une seule famille,Orbiliaceae et 38 genres :
 Arthrobotrys Corda, 1839
@@ -639,9 +661,11 @@
           <t>Liste des ordres et non-classés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (19 févr. 2012)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (19 févr. 2012) :
 ordre Orbiliales
 non-classé Unclassified Orbiliomycetes</t>
         </is>
